--- a/data/income_statement/2digits/size/27_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/27_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>27-Manufacture of electrical equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>27-Manufacture of electrical equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1875178.5203</v>
+        <v>1921049.83971</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2067805.82076</v>
+        <v>2166673.30962</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2494009.32989</v>
+        <v>2549072.81566</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2655316.07544</v>
+        <v>2753019.29581</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3711596.16432</v>
+        <v>3832123.83323</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4358177.49883</v>
+        <v>4531138.51644</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4528581.49149</v>
+        <v>4786213.162400001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4640564.99988</v>
+        <v>4983948.6388</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5155783.82208</v>
+        <v>5466601.343320001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>9928930.66824</v>
+        <v>10225336.37289</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>10132834.05037</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10848798.78279</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>14756535.449</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1629957.86185</v>
+        <v>1663359.42913</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1806323.82178</v>
+        <v>1890053.45447</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2194932.39062</v>
+        <v>2236464.19628</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2314679.92748</v>
+        <v>2394580.77929</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3232698.6437</v>
+        <v>3332440.84946</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3800446.76755</v>
+        <v>3952711.53814</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3934687.7453</v>
+        <v>4163395.56671</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4088626.0519</v>
+        <v>4381378.38548</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>4627143.745450001</v>
+        <v>4896203.38879</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8352352.63425</v>
+        <v>8577706.636049999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>8203171.022109999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8815024.794459999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12490326.945</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>215750.64331</v>
+        <v>228648.54775</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>239772.57491</v>
+        <v>253646.21166</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>274880.94154</v>
+        <v>288949.5777</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>312169.66068</v>
+        <v>328085.75346</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>438461.41937</v>
+        <v>457028.7180699999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>510557.30935</v>
+        <v>530960.2682800001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>538514.84806</v>
+        <v>561593.5007900001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>500638.08393</v>
+        <v>542153.20236</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>460405.1680700001</v>
+        <v>495195.90027</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1449740.07743</v>
+        <v>1513300.21907</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1792647.99655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1892159.77147</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2103036.869</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>29470.01514</v>
+        <v>29041.86283</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>21709.42407</v>
+        <v>22973.64349</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>24195.99773</v>
+        <v>23659.04168</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>28466.48728</v>
+        <v>30352.76306</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>40436.10125</v>
+        <v>42654.2657</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>47173.42193</v>
+        <v>47466.71002</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>55378.89812999999</v>
+        <v>61224.0949</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>51300.86405</v>
+        <v>60417.05095999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>68234.90856</v>
+        <v>75202.05426</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>126837.95656</v>
+        <v>134329.51777</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>137015.03171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>141614.21686</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>163171.635</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>47066.28262999999</v>
+        <v>48698.04580000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>40571.83303</v>
+        <v>44215.14869</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>42912.68236999999</v>
+        <v>44985.79233</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>37115.87788</v>
+        <v>45647.98</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>55014.53103999999</v>
+        <v>60031.19194</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>62109.62631</v>
+        <v>67523.69012</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>67511.72374000002</v>
+        <v>77114.58136</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>70469.65049999999</v>
+        <v>78561.98914000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>62616.98818000001</v>
+        <v>74703.58181999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>177687.38119</v>
+        <v>185791.08132</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>147961.87215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>412743.88861</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>256389.122</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>24779.62489</v>
+        <v>25924.83914</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>19281.78667</v>
+        <v>21310.55918</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>22139.00595</v>
+        <v>23217.41494</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>25983.76174</v>
+        <v>27554.54457</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>30513.2789</v>
+        <v>31999.35145</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>37783.09201</v>
+        <v>38646.66087</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>35997.12919</v>
+        <v>40033.90606</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>42877.71049999999</v>
+        <v>45711.38531000001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>37424.71849</v>
+        <v>41960.19152</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>106548.02902</v>
+        <v>111283.11139</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>95784.63722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>357320.40413</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>167825.402</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>21128.56182</v>
+        <v>21611.00167</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>20338.93858</v>
+        <v>21910.69604</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>19630.01232</v>
+        <v>20706.47666</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>9729.300880000001</v>
+        <v>16662.04801</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>23318.70781</v>
+        <v>26619.17134</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>22501.06321</v>
+        <v>26887.81218</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>28675.5379</v>
+        <v>33955.49735000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>25388.87818</v>
+        <v>30275.01557</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>23107.24822</v>
+        <v>30492.78581</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>63905.16641999999</v>
+        <v>67274.80885000002</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>47871.86346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>50692.71833</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>77349.00599999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1158.09592</v>
+        <v>1162.20499</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>951.10778</v>
+        <v>993.89347</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1143.6641</v>
+        <v>1061.90073</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1402.81526</v>
+        <v>1431.38742</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1182.54433</v>
+        <v>1412.66915</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1825.47109</v>
+        <v>1989.21707</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2839.05665</v>
+        <v>3125.17795</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2203.06182</v>
+        <v>2575.58826</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2085.02147</v>
+        <v>2250.60449</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>7234.18575</v>
+        <v>7233.16108</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4305.37147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4730.76615</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>11214.714</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1828112.23767</v>
+        <v>1872351.79391</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2027233.98773</v>
+        <v>2122458.16093</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2451096.64752</v>
+        <v>2504087.02333</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2618200.19756</v>
+        <v>2707371.31581</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3656581.63328</v>
+        <v>3772092.641290001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4296067.872520001</v>
+        <v>4463614.82632</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4461069.76775</v>
+        <v>4709098.58104</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4570095.34938</v>
+        <v>4905386.64966</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5093166.833900001</v>
+        <v>5391897.7615</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>9751243.287049999</v>
+        <v>10039545.29157</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>9984872.17822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10436054.89418</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>14500146.327</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1508279.29544</v>
+        <v>1544516.4754</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1703895.76647</v>
+        <v>1778690.25309</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2058495.73793</v>
+        <v>2100684.16564</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2186401.61493</v>
+        <v>2277228.50137</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3030948.0947</v>
+        <v>3130859.384429999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3601442.57582</v>
+        <v>3743919.720420001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3705190.35043</v>
+        <v>3918518.27949</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3809973.69801</v>
+        <v>4094358.89469</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4292527.6657</v>
+        <v>4545623.79434</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8297014.5286</v>
+        <v>8514734.74526</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>8446071.675029999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8832056.152589999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>12687961.522</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1084255.25427</v>
+        <v>1120390.03125</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1192593.45446</v>
+        <v>1256209.6021</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1482080.90178</v>
+        <v>1516893.05457</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1524540.30217</v>
+        <v>1590981.21992</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2182688.64539</v>
+        <v>2268256.49758</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2497687.10067</v>
+        <v>2604212.89893</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2504494.19891</v>
+        <v>2672987.84026</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2515200.8053</v>
+        <v>2734012.68578</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2847011.74641</v>
+        <v>3040497.33238</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>5900256.2828</v>
+        <v>6033691.686950001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>5853015.929490001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>6119751.103189999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>6922754.112</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>351503.5095399999</v>
+        <v>349385.42052</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>412773.05936</v>
+        <v>423247.04606</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>465170.2065600001</v>
+        <v>475959.59228</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>521708.7709599999</v>
+        <v>526866.28032</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>679875.858</v>
+        <v>690981.0146500001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>888564.2513699998</v>
+        <v>907626.4980999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>928128.0341000002</v>
+        <v>960394.26552</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1002415.08213</v>
+        <v>1053475.08235</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1121984.62495</v>
+        <v>1182032.08786</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2007987.76742</v>
+        <v>2098817.21373</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2125958.66357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2242989.83124</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5270866.618</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>64924.40416000001</v>
+        <v>67017.67797</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>91906.29349000001</v>
+        <v>92637.72886000002</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>107365.257</v>
+        <v>105277.8792</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>137732.79701</v>
+        <v>137955.21561</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>162022.10601</v>
+        <v>165240.57246</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>199869.5389</v>
+        <v>216429.63066</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>256737.64319</v>
+        <v>268055.45512</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>277985.99079</v>
+        <v>290409.48158</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>307507.6920399999</v>
+        <v>304958.72257</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>369432.5185</v>
+        <v>362834.72107</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>422396.76277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>424676.26282</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>444712.21</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>7596.127469999999</v>
+        <v>7723.34566</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>6622.959159999999</v>
+        <v>6595.876069999999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>3879.37259</v>
+        <v>2553.63959</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>2419.74479</v>
+        <v>21425.78552</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>6361.485299999999</v>
+        <v>6381.29974</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>15321.68488</v>
+        <v>15650.69273</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>15830.47423</v>
+        <v>17080.71859</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>14371.81979</v>
+        <v>16461.64498</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>16023.6023</v>
+        <v>18135.65153</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>19337.95988</v>
+        <v>19391.12351</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>44700.31920000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>44638.95534</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>49628.582</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>319832.94223</v>
+        <v>327835.31851</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>323338.22126</v>
+        <v>343767.9078400001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>392600.90959</v>
+        <v>403402.85769</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>431798.58263</v>
+        <v>430142.81444</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>625633.5385799999</v>
+        <v>641233.2568600001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>694625.2967000001</v>
+        <v>719695.1059</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>755879.41732</v>
+        <v>790580.30155</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>760121.65137</v>
+        <v>811027.7549699999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>800639.1682000001</v>
+        <v>846273.9671599999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1454228.75845</v>
+        <v>1524810.54631</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1538800.50319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1603998.74159</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1812184.805</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>225510.37614</v>
+        <v>235197.72587</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>234691.24388</v>
+        <v>244421.18557</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>268784.05655</v>
+        <v>276080.20997</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>293321.56707</v>
+        <v>301092.8595600001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>421154.87975</v>
+        <v>427092.20233</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>462152.38014</v>
+        <v>473641.12989</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>513953.16543</v>
+        <v>551317.78553</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>542367.04914</v>
+        <v>571324.4694300001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>553932.67865</v>
+        <v>580163.5932999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>932339.2676200001</v>
+        <v>969890.6428700001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>997076.51815</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1040178.10707</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1081475.424</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>5279.75851</v>
+        <v>5928.812339999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>5101.69149</v>
+        <v>5685.41894</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>3865.98269</v>
+        <v>3924.30757</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2859.36153</v>
+        <v>2999.4562</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>6662.04882</v>
+        <v>7626.748870000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>7344.68352</v>
+        <v>8038.62469</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>8677.99388</v>
+        <v>9004.661830000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>9211.166510000001</v>
+        <v>10382.65591</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>6546.24264</v>
+        <v>6351.19011</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>13251.66943</v>
+        <v>14168.61396</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>14333.27772</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14906.98703</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>16414.751</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>51387.50086</v>
+        <v>53992.21754000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>58036.85944000001</v>
+        <v>62867.55324</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>65029.56672</v>
+        <v>69392.45237</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>67218.46561000001</v>
+        <v>72756.75096999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>93365.43601999998</v>
+        <v>96811.58652</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>105560.46659</v>
+        <v>109793.54994</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>125107.93012</v>
+        <v>136356.12222</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>130548.40404</v>
+        <v>139511.84208</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>124019.89549</v>
+        <v>132586.74199</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>245403.33801</v>
+        <v>248845.88528</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>270657.39124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>276406.79041</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>254914.405</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>168843.11677</v>
+        <v>175276.69599</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>171552.69295</v>
+        <v>175868.21339</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>199888.50714</v>
+        <v>202763.45003</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>223243.73993</v>
+        <v>225336.65239</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>321127.39491</v>
+        <v>322653.8669399999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>349247.23003</v>
+        <v>355808.95526</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>380167.24143</v>
+        <v>405957.00148</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>402607.47859</v>
+        <v>421429.9714399999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>423366.54052</v>
+        <v>441225.6612</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>673684.26018</v>
+        <v>706876.1436299999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>712085.84919</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>748864.3296300002</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>810146.268</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>94322.56609000001</v>
+        <v>92637.59264</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>88646.97738</v>
+        <v>99346.72227000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>123816.85304</v>
+        <v>127322.64772</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>138477.01556</v>
+        <v>129049.95488</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>204478.65883</v>
+        <v>214141.05453</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>232472.91656</v>
+        <v>246053.97601</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>241926.25189</v>
+        <v>239262.51602</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>217754.60223</v>
+        <v>239703.28554</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>246706.48955</v>
+        <v>266110.37386</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>521889.49083</v>
+        <v>554919.90344</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>541723.9850400001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>563820.63452</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>730709.3810000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>25038.64516</v>
+        <v>23303.19139</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>21242.24787</v>
+        <v>55176.43809</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>33143.04983</v>
+        <v>63349.99594000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>22513.23621</v>
+        <v>39976.69264</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>38994.58069</v>
+        <v>47069.79249</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>41922.52925</v>
+        <v>41530.39242</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>75178.92564999999</v>
+        <v>102142.30949</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>67013.64010999999</v>
+        <v>191216.24692</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>61910.05804999999</v>
+        <v>90678.51569</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>369959.0484300001</v>
+        <v>449430.01087</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>221457.90063</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>245236.64283</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>831593.018</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>34.44598000000001</v>
+        <v>79.42400000000001</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>15.41926</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>112.95805</v>
+        <v>9.758049999999999</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>616.2689099999999</v>
+        <v>106.15743</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>621.5839999999999</v>
+        <v>28.51281</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1360.51282</v>
+        <v>1098.60882</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1045.68064</v>
+        <v>18498.69891</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>334.6051</v>
+        <v>1.4211</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2847.46201</v>
+        <v>593.61914</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>198.79633</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>25.086</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1814,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>321.48</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>0</v>
@@ -1823,250 +1839,280 @@
         <v>106.12169</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>2600.71009</v>
+        <v>130.9828</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>629.1831099999999</v>
+        <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>3480</v>
+        <v>15787.5</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>261.2176</v>
+        <v>3947.58564</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>16634.74493</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>1066.09772</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>6.472</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2939.940270000001</v>
+        <v>3003.02869</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2278.39069</v>
+        <v>2253.1582</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3049.96541</v>
+        <v>2923.6266</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3559.88415</v>
+        <v>3466.77807</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4186.31837</v>
+        <v>4414.14167</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>5708.08115</v>
+        <v>5033.91083</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>6731.94133</v>
+        <v>7533.62954</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>6718.280119999999</v>
+        <v>9128.759910000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>8198.21067</v>
+        <v>10906.67237</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>22470.58143</v>
+        <v>26115.16604</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>30291.41059</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>36949.5668</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>22693.217</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>695.8134200000001</v>
+        <v>700.9314400000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>415.4319399999999</v>
+        <v>421.31461</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>241.20994</v>
+        <v>241.97722</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1166.22511</v>
+        <v>821.8397199999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>493.81309</v>
+        <v>485.90434</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>792.0582900000001</v>
+        <v>782.9268499999999</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>1143.58189</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>794.5912</v>
+        <v>788.38103</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>893.7920399999999</v>
+        <v>914.6681799999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>7212.22696</v>
+        <v>7054.371990000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1495.02087</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1507.97742</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>404.868</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>822.5611399999999</v>
+        <v>822.5062999999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>506.6558099999999</v>
+        <v>26974.11328</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1881.78635</v>
+        <v>25308.79919</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>589.17912</v>
+        <v>7552.03628</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>929.7629400000002</v>
+        <v>8068.440090000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1467.67956</v>
+        <v>1873.29062</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2619.02757</v>
+        <v>1237.98782</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1972.16701</v>
+        <v>4701.37625</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1521.99337</v>
+        <v>1357.57314</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1676.53274</v>
+        <v>1414.59844</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1664.66833</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1737.50294</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2265.5</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>971.54932</v>
+        <v>321.5061700000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>587.18009</v>
+        <v>295.19829</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>454.82786</v>
+        <v>379.44352</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>283.33402</v>
+        <v>8961.447249999997</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>246.85192</v>
+        <v>566.13462</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>476.7414299999999</v>
+        <v>981.22551</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>383.1356700000001</v>
+        <v>421.89331</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>549.95525</v>
+        <v>64753.68884</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>526.81443</v>
+        <v>470.22577</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1814.51361</v>
+        <v>1810.06521</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1450.70794</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1406.63074</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2283.895</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>12692.03064</v>
+        <v>12246.74876</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>11779.70403</v>
+        <v>19078.62321</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>20223.03674</v>
+        <v>26729.4143</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>9081.832</v>
+        <v>10795.66014</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>25680.75435</v>
+        <v>26460.09491</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>23557.51232</v>
+        <v>26251.09994</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>54382.81875999999</v>
+        <v>76857.68338</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>41880.17312000001</v>
+        <v>65180.03076000001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>39385.98382</v>
+        <v>63033.86412999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>309813.13511</v>
+        <v>373018.90056</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>138712.90172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>168975.8886</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>762999.048</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>236.32735</v>
+        <v>294.82735</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>23.26634</v>
+        <v>199.98434</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>26.06876</v>
+        <v>205.99224</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>82.16687999999999</v>
+        <v>82.16688000000001</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>54.51412000000001</v>
+        <v>54.21012</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>24.47608</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>9.99408</v>
+        <v>140.1397</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>46.29902</v>
+        <v>42.19398</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>214.24458</v>
+        <v>209.69732</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>1130.31317</v>
@@ -2074,26 +2120,31 @@
       <c r="M33" s="48" t="n">
         <v>1126.93798</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>423.431</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>7.83074</v>
+        <v>8.3131</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>276.55399</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>80.24586000000001</v>
+        <v>71.85378</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>125.35803</v>
+        <v>103.99362</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>116.11118</v>
@@ -2113,254 +2164,289 @@
       <c r="M34" s="48" t="n">
         <v>151.92651</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>4889.502</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>6645.977040000001</v>
+        <v>5834.21868</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5628.36897</v>
+        <v>5930.313800000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>6876.64273</v>
+        <v>6952.95083</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>7670.369070000001</v>
+        <v>8224.910520000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6554.81727</v>
+        <v>6704.594</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>6557.575150000001</v>
+        <v>6307.855799999998</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>7814.539400000001</v>
+        <v>13604.59401</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>10491.91075</v>
+        <v>12301.03424</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>10819.85256</v>
+        <v>13769.8322</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>22701.09078</v>
+        <v>34313.41566</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>29730.78543</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>32115.31779</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>35601.999</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>18525.46174</v>
+        <v>18944.66623</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>20910.34991</v>
+        <v>28623.73716</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>30224.07474</v>
+        <v>32439.02849</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>21767.64459</v>
+        <v>24793.92781</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>38270.12869999999</v>
+        <v>40254.78805</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>36639.63014</v>
+        <v>41799.77047</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>55681.76905999999</v>
+        <v>88757.06152000002</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>52108.75337</v>
+        <v>78361.01659</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>42309.42986</v>
+        <v>71632.91412999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>336566.65182</v>
+        <v>437663.5275200001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>158846.03678</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>204514.35321</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>723362.078</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>934.43674</v>
+        <v>850.7815199999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>308.0333</v>
+        <v>315.8012</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>590.01</v>
+        <v>595.97151</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2228.7451</v>
+        <v>2314.07016</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1549.96607</v>
+        <v>1448.31645</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2203.60761</v>
+        <v>2203.23438</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1251.9966</v>
+        <v>1469.36072</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>600.63994</v>
+        <v>733.27404</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2077.15773</v>
+        <v>2064.30489</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3735.68167</v>
+        <v>3733.44076</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3654.49678</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3647.47682</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>5597.462</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>3151.75558</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>5041.486029999999</v>
+        <v>5945.23607</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>4779.799150000001</v>
+        <v>4751.44576</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6162.48421</v>
+        <v>5822.35727</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>10803.16081</v>
+        <v>11167.16295</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>7922.32599</v>
+        <v>8639.767390000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>6064.71263</v>
+        <v>6682.976570000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>8477.794190000001</v>
+        <v>11533.02292</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3443.27918</v>
+        <v>3544.08089</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>25342.09876</v>
+        <v>24766.8857</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>21080.04885</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>24835.17155</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>16851.486</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>417.9562</v>
+        <v>12.12701</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>826.31176</v>
+        <v>474.1471100000001</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1263.93971</v>
+        <v>42.56974</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>13.17381</v>
+        <v>13.1589</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>39.14975</v>
+        <v>23.86445</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>37.00625</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>307.01445</v>
+        <v>306.91124</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>187.07389</v>
+        <v>717.59262</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>6.481520000000001</v>
+        <v>2.48152</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>149.20504</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>578.81957</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>578.8195700000001</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>497.702</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>11333.65141</v>
+        <v>12300.38537</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>11731.81033</v>
+        <v>19913.6513</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>21149.51395</v>
+        <v>24484.56719</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>10598.24586</v>
+        <v>12979.49509</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>23448.20406</v>
+        <v>24988.449</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>23856.81192</v>
+        <v>28127.11958000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>45529.55426</v>
+        <v>75392.4635</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>35436.79845</v>
+        <v>57397.69873999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>34250.19362999999</v>
+        <v>63439.18419</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>296086.52955</v>
+        <v>396093.2084899999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>119865.3224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>158027.87986</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>684956.667</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>257.72861</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>130.96987</v>
+        <v>308.84687</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>12.92432</v>
+        <v>179.74581</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>2.76702</v>
@@ -2375,10 +2461,10 @@
         <v>12.42691</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>23.67822</v>
+        <v>16.91716</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>171.21933</v>
+        <v>169.96921</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>1019.05427</v>
@@ -2386,23 +2472,28 @@
       <c r="M41" s="48" t="n">
         <v>1094.42905</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>972.6420000000001</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>21.56154</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>49.79072</v>
+        <v>12.82772</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>95.34057999999999</v>
+        <v>81.17883</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0.00042</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2408.37166</v>
+        <v>2350.326599999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2821.9479</v>
+        <v>1653.22689</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2427.88761</v>
+        <v>2384.72848</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2666.88801</v>
+        <v>3580.90054</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2385.14159</v>
+        <v>2582.48878</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2530.41932</v>
+        <v>2703.18382</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2468.42079</v>
+        <v>4845.27916</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>7382.412719999999</v>
+        <v>7962.15515</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2345.84423</v>
+        <v>2397.63919</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>10234.08253</v>
+        <v>11901.73326</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>12572.92013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>16330.57636</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>14486.119</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>32716.30047</v>
+        <v>34950.48315</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>23836.20045</v>
+        <v>31062.30518</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>27791.83683</v>
+        <v>31349.23525</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>33120.93231</v>
+        <v>41112.68322</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>44732.04235</v>
+        <v>49458.37244000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>53959.92327000001</v>
+        <v>60821.21027</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>61938.77759000001</v>
+        <v>80556.60846999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>70213.99861</v>
+        <v>91809.00387</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>70927.50474999999</v>
+        <v>92244.63003999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>216800.05792</v>
+        <v>250954.92788</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>213956.43946</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>267352.34051</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>211401.976</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>31296.8006</v>
+        <v>33960.54256</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>22922.38215</v>
+        <v>29789.00556</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>27017.48633</v>
+        <v>30414.67787</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>32095.77644</v>
+        <v>39988.83977</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>43328.88438</v>
+        <v>48021.87519</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>52110.49893</v>
+        <v>58742.47697</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>59361.13327</v>
+        <v>77314.07442999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>68040.99073</v>
+        <v>89089.21736</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>68889.91871</v>
+        <v>89410.94627000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>209412.96626</v>
+        <v>242266.79072</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>205528.23421</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>255551.9938</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>201056.728</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1419.49987</v>
+        <v>989.9405899999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>913.8183</v>
+        <v>1273.29962</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>774.3505</v>
+        <v>934.5573799999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1025.15587</v>
+        <v>1123.84345</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1403.15797</v>
+        <v>1436.49725</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1849.42434</v>
+        <v>2078.7333</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2577.644319999999</v>
+        <v>3242.53404</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2173.00788</v>
+        <v>2719.78651</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2037.58604</v>
+        <v>2833.68377</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>7387.091659999999</v>
+        <v>8688.13716</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>8428.205250000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>11800.34671</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>10345.248</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>68119.44904000001</v>
+        <v>62045.63465000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>65142.67488999999</v>
+        <v>94837.11801999998</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>98943.99129999999</v>
+        <v>126884.37992</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>106101.67487</v>
+        <v>103120.03649</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>160471.06847</v>
+        <v>171497.68653</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>183795.8924</v>
+        <v>184963.38769</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>199484.63089</v>
+        <v>172091.15552</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>162445.49036</v>
+        <v>260749.512</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>195379.61299</v>
+        <v>192911.34538</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>338481.82952</v>
+        <v>315731.45891</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>390379.40943</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>337190.58363</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>627538.345</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>8474.97925</v>
+        <v>9720.361050000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>14057.24082</v>
+        <v>34493.14828</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>16182.01916</v>
+        <v>14675.22941</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>13372.17507</v>
+        <v>17196.68113</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>23416.17889</v>
+        <v>21893.30257</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>22864.62577</v>
+        <v>23795.23833</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>21996.45323</v>
+        <v>26526.4621</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>27766.6245</v>
+        <v>29146.30647</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>32302.81543</v>
+        <v>45763.51451</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>63909.77813</v>
+        <v>71975.06116</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>97267.01054999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>122134.67836</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>114728.592</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>86.29768</v>
+        <v>132.94752</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>270.89634</v>
+        <v>23480.93028</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>241.78977</v>
+        <v>214.51428</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>116.67382</v>
+        <v>408.82748</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>203.36897</v>
+        <v>200.95051</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>718.59756</v>
+        <v>733.4659000000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>321.04073</v>
+        <v>317.7941</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>210.19446</v>
+        <v>411.42687</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>199.55159</v>
+        <v>946.3334699999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>2270.10648</v>
+        <v>2838.86998</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>502.89963</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>660.29968</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1909.193</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>8388.681570000001</v>
+        <v>9587.413530000002</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>13786.34448</v>
+        <v>11012.218</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>15940.22939</v>
+        <v>14460.71513</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>13255.50125</v>
+        <v>16787.85365</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>23212.80992</v>
+        <v>21692.35206</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>22146.02821</v>
+        <v>23061.77243</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>21675.4125</v>
+        <v>26208.668</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>27556.43004</v>
+        <v>28734.8796</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>32103.26384</v>
+        <v>44817.18104</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>61639.67165</v>
+        <v>69136.19118000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>96764.11091999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>121474.37868</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>112819.399</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>10502.63477</v>
+        <v>10008.2981</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>9592.549100000002</v>
+        <v>17770.36432</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>82208.0892</v>
+        <v>83573.74785</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>13276.29287</v>
+        <v>22945.8299</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>13285.87201</v>
+        <v>14264.97549</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>64939.44479</v>
+        <v>69716.46295</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>22633.1921</v>
+        <v>21978.75833</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>91811.99816</v>
+        <v>97270.84621</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>25122.06987</v>
+        <v>42809.66961</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>130876.09044</v>
+        <v>140064.62857</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>64975.54108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>66156.59846000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>51376.193</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>635.57114</v>
+        <v>560.9603000000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>462.96251</v>
+        <v>7512.09641</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>803.6127999999999</v>
+        <v>1268.72744</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>547.02333</v>
+        <v>8023.11332</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1070.7226</v>
+        <v>1246.58255</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>733.2846800000001</v>
+        <v>7440.944589999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>748.9104699999999</v>
+        <v>213.22045</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2957.82565</v>
+        <v>4204.782560000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1489.98453</v>
+        <v>5745.00593</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>3698.27948</v>
+        <v>1971.56684</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2254.54013</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2121.78193</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1747.267</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>354.24974</v>
+        <v>338.80981</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>390.01799</v>
+        <v>317.81611</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>472.81339</v>
+        <v>517.13521</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1014.98025</v>
+        <v>1046.36045</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>309.73454</v>
+        <v>298.63353</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>791.91049</v>
+        <v>861.1548200000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1008.21199</v>
+        <v>866.03067</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1157.67282</v>
+        <v>8994.213180000002</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1671.09921</v>
+        <v>9030.243410000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1898.96212</v>
+        <v>2025.06207</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1973.74414</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2497.57617</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1956.622</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>9512.813889999999</v>
+        <v>9108.527990000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>8739.568600000001</v>
+        <v>9940.451800000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>80931.66301</v>
+        <v>81787.8852</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>11714.28929</v>
+        <v>13876.35613</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>11905.41487</v>
+        <v>12719.75941</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>63414.24962</v>
+        <v>61414.36354</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>20876.06964000001</v>
+        <v>20899.50721</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>87696.49969</v>
+        <v>84071.85047</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>21960.98613</v>
+        <v>28034.42027</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>125278.84884</v>
+        <v>136067.99966</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>60747.25681</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>61537.24036</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>47672.304</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>66091.79352000001</v>
+        <v>61757.69759999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>69607.36661</v>
+        <v>111559.90198</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>32917.92126</v>
+        <v>57985.86148</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>106197.55707</v>
+        <v>97370.88772000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>170601.37535</v>
+        <v>179126.01361</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>141721.07338</v>
+        <v>139042.16307</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>198847.89202</v>
+        <v>176638.85929</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>98400.1167</v>
+        <v>192624.97226</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>202560.35855</v>
+        <v>195865.19028</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>271515.51721</v>
+        <v>247641.8915</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>422670.8789</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>393168.66353</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>690890.7439999999</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>17020.79406</v>
+        <v>17106.94008</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>16246.28148</v>
+        <v>17018.25754</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>20415.33342</v>
+        <v>20710.05011</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>22558.80996999999</v>
+        <v>23160.95308</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>33582.59022999999</v>
+        <v>33797.92520000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>36773.28878</v>
+        <v>38161.59333</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>41300.10381</v>
+        <v>42941.38556999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>38563.51665</v>
+        <v>44355.60167</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>43091.86783</v>
+        <v>44880.49325</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>87079.9904</v>
+        <v>88942.34524</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>90813.61484000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>92697.18191000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>142363.072</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>49070.99946</v>
+        <v>44650.75752</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>53361.08512999999</v>
+        <v>94541.64444000002</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>12502.58784</v>
+        <v>37275.81137</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>83638.74709999999</v>
+        <v>74209.93463999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>137018.78512</v>
+        <v>145328.08841</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>104947.7846</v>
+        <v>100880.56974</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>157547.78821</v>
+        <v>133697.47372</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>59836.60005</v>
+        <v>148269.37059</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>159468.49072</v>
+        <v>150984.69703</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>184435.52681</v>
+        <v>158699.54626</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>331857.26406</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>300471.48162</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>548527.672</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>944</v>
+        <v>862</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>980</v>
+        <v>896</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1064</v>
+        <v>955</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1146</v>
+        <v>1036</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1320</v>
+        <v>1176</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1455</v>
+        <v>1293</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1532</v>
+        <v>1354</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1605</v>
+        <v>1374</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1671</v>
+        <v>1399</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1360</v>
+        <v>1230</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1201</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>